--- a/robots/pagegen/data.xlsx
+++ b/robots/pagegen/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEAEC20-0664-4841-917E-4A5B8256BDE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA8120-0C78-4D9A-8A83-F490AA6EB604}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -599,64 +599,64 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">

--- a/robots/pagegen/data.xlsx
+++ b/robots/pagegen/data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FA8120-0C78-4D9A-8A83-F490AA6EB604}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55F13D-EAFD-435A-9961-09396759CA02}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Authors</t>
   </si>
@@ -243,16 +243,84 @@
   </si>
   <si>
     <t>Paper</t>
+  </si>
+  <si>
+    <t>Projection-Aware Task Planning and Execution for Human-in-the-Loop Operation of Robots in a Mixed-Reality Workspace</t>
+  </si>
+  <si>
+    <t>Tathagata Chakraborti, Sarath Sreedharan, Anagha Kulkarni, Subbarao Kambhampati</t>
+  </si>
+  <si>
+    <t>https://yochan-lab.github.io/papers/files/papers/projection-aware.pdf</t>
+  </si>
+  <si>
+    <t>A Unified Framework to Obfuscation and Legibility</t>
+  </si>
+  <si>
+    <t>9eteZS5Vw84</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1802.06137</t>
+  </si>
+  <si>
+    <t>Anagha Kulkarni, Siddharth Srivastava, Subbarao Kambhampati</t>
+  </si>
+  <si>
+    <t>https://yochan-lab.github.io/papers/files/papers/ijcai-helm-camera%20(14).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarath Sreedharan, Siddharth Srivastava, Subbarao Kambhampati </t>
+  </si>
+  <si>
+    <t>Hierarchical Expertise-Level Modeling for User Specific Robot-Behavior Explanations</t>
+  </si>
+  <si>
+    <t>expertise-thumbnail.png</t>
+  </si>
+  <si>
+    <t>papp-thumbnail.png</t>
+  </si>
+  <si>
+    <t>unified-thumbnail.png</t>
+  </si>
+  <si>
+    <t>https://yochan-lab.github.io/papers/files/papers/ma-radar.pdf</t>
+  </si>
+  <si>
+    <t>ma-radar-thumbnail.png</t>
+  </si>
+  <si>
+    <t>MA-RADAR - A Mixed-Reality Interface for Collaborative Decision Making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sailik Sengupta, Tathagata Chakraborti, Subbarao Kambhampati </t>
+  </si>
+  <si>
+    <t>u4s3bA_KEAs</t>
+  </si>
+  <si>
+    <t>5UVBq7veOCw</t>
+  </si>
+  <si>
+    <t>qUHg8RABjsw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,16 +343,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -563,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF7FF2-5513-4694-9A44-0590350F5772}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -619,29 +692,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -653,174 +726,241 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
+      <c r="D6" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{1E83CBE6-89B0-4AB9-836C-C489FAB812B0}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{B2EFF7A0-20D8-4817-8EBC-E7BCF7ECEF79}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{6DAA476F-69D2-4935-900C-A5DA37560D41}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBE9F31-0271-4DD6-92EF-89236D515945}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -893,47 +1033,70 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{D7F977DA-4245-4ACD-8217-B99502145BB7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>